--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="57">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,19 +52,19 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -124,34 +124,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -591,31 +594,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -626,16 +629,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -647,10 +650,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,10 +667,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -682,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -734,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -752,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -766,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -787,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,31 +804,31 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -833,34 +836,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -871,13 +874,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -892,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -909,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -965,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -979,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -990,13 +993,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1004,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1035,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1060,13 +1063,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,10 +1077,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1088,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1146,16 +1149,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1163,16 +1166,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D4">
-        <v>0.1000000000000001</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1183,13 +1186,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1197,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>0.7000000000000002</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1214,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>-0.7000000000000002</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1234,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1251,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D9">
-        <v>-0.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1268,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1285,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1347,230 +1350,230 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>29.85</v>
+        <v>32.94</v>
       </c>
       <c r="C2">
-        <v>22.91</v>
+        <v>24.03</v>
       </c>
       <c r="D2">
-        <v>17.94</v>
+        <v>16.94</v>
       </c>
       <c r="E2">
-        <v>11.44</v>
+        <v>11.59</v>
       </c>
       <c r="F2">
-        <v>7.77</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="G2">
-        <v>4.99</v>
+        <v>3.94</v>
       </c>
       <c r="H2">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="J2">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="K2">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="L2">
-        <v>94.89999999999999</v>
+        <v>96.55</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>27.28</v>
+        <v>21.12</v>
       </c>
       <c r="C3">
-        <v>26.81</v>
+        <v>19.25</v>
       </c>
       <c r="D3">
-        <v>18.78</v>
+        <v>15.49</v>
       </c>
       <c r="E3">
-        <v>12.61</v>
+        <v>14.03</v>
       </c>
       <c r="F3">
-        <v>6.88</v>
+        <v>9.59</v>
       </c>
       <c r="G3">
-        <v>4.09</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H3">
-        <v>2.15</v>
+        <v>5.71</v>
       </c>
       <c r="I3">
-        <v>1.02</v>
+        <v>3.84</v>
       </c>
       <c r="J3">
-        <v>0.31</v>
+        <v>2.04</v>
       </c>
       <c r="K3">
-        <v>0.06999999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L3">
-        <v>96.45</v>
+        <v>87.53000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>22.28</v>
+        <v>20.75</v>
       </c>
       <c r="C4">
-        <v>18.6</v>
+        <v>19.97</v>
       </c>
       <c r="D4">
-        <v>16.37</v>
+        <v>17.36</v>
       </c>
       <c r="E4">
-        <v>13.34</v>
+        <v>14.16</v>
       </c>
       <c r="F4">
-        <v>10.94</v>
+        <v>10.08</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H4">
-        <v>5.48</v>
+        <v>4.84</v>
       </c>
       <c r="I4">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="K4">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="L4">
-        <v>89.03</v>
+        <v>89.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>9.51</v>
+        <v>9.26</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>13.32</v>
+        <v>12.61</v>
       </c>
       <c r="E5">
-        <v>13.38</v>
+        <v>13.47</v>
       </c>
       <c r="F5">
-        <v>13.63</v>
+        <v>12.07</v>
       </c>
       <c r="G5">
-        <v>11.75</v>
+        <v>13.59</v>
       </c>
       <c r="H5">
-        <v>10.62</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="I5">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="J5">
-        <v>5.66</v>
+        <v>6.4</v>
       </c>
       <c r="K5">
-        <v>3.03</v>
+        <v>3.47</v>
       </c>
       <c r="L5">
-        <v>73.09</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3.9</v>
+        <v>5.69</v>
       </c>
       <c r="C6">
-        <v>5.55</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="D6">
-        <v>8.380000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="E6">
-        <v>11.44</v>
+        <v>11.06</v>
       </c>
       <c r="F6">
-        <v>12.76</v>
+        <v>12.35</v>
       </c>
       <c r="G6">
-        <v>13.67</v>
+        <v>13.66</v>
       </c>
       <c r="H6">
-        <v>13.74</v>
+        <v>11.65</v>
       </c>
       <c r="I6">
-        <v>12.4</v>
+        <v>11.57</v>
       </c>
       <c r="J6">
-        <v>10.69</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="K6">
-        <v>7.470000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="L6">
-        <v>55.69999999999999</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>3.11</v>
+        <v>5.59</v>
       </c>
       <c r="C7">
-        <v>5.510000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="D7">
-        <v>8.33</v>
+        <v>10.53</v>
       </c>
       <c r="E7">
-        <v>11.11</v>
+        <v>11.4</v>
       </c>
       <c r="F7">
-        <v>12.2</v>
+        <v>14.54</v>
       </c>
       <c r="G7">
-        <v>13.35</v>
+        <v>12.51</v>
       </c>
       <c r="H7">
-        <v>13.75</v>
+        <v>11.78</v>
       </c>
       <c r="I7">
-        <v>12.95</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>10.4</v>
+        <v>8.57</v>
       </c>
       <c r="K7">
-        <v>9.289999999999999</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="L7">
-        <v>53.61000000000001</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1578,37 +1581,37 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="C8">
-        <v>4.17</v>
+        <v>5.45</v>
       </c>
       <c r="D8">
-        <v>6.73</v>
+        <v>7.13</v>
       </c>
       <c r="E8">
-        <v>10.45</v>
+        <v>8.83</v>
       </c>
       <c r="F8">
-        <v>11.82</v>
+        <v>12.63</v>
       </c>
       <c r="G8">
-        <v>14.02</v>
+        <v>12.01</v>
       </c>
       <c r="H8">
-        <v>12.73</v>
+        <v>13.33</v>
       </c>
       <c r="I8">
-        <v>14.32</v>
+        <v>13.74</v>
       </c>
       <c r="J8">
-        <v>12.42</v>
+        <v>12.45</v>
       </c>
       <c r="K8">
-        <v>11.1</v>
+        <v>11.59</v>
       </c>
       <c r="L8">
-        <v>49.42999999999999</v>
+        <v>48.88999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1616,37 +1619,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="C9">
-        <v>3.53</v>
+        <v>2.75</v>
       </c>
       <c r="D9">
-        <v>6.56</v>
+        <v>4.83</v>
       </c>
       <c r="E9">
-        <v>9.66</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="F9">
-        <v>11.65</v>
+        <v>9.48</v>
       </c>
       <c r="G9">
-        <v>13.97</v>
+        <v>10.52</v>
       </c>
       <c r="H9">
-        <v>13.78</v>
+        <v>14.89</v>
       </c>
       <c r="I9">
-        <v>14.02</v>
+        <v>14.23</v>
       </c>
       <c r="J9">
-        <v>12.77</v>
+        <v>16.39</v>
       </c>
       <c r="K9">
-        <v>12.67</v>
+        <v>18.4</v>
       </c>
       <c r="L9">
-        <v>46.76</v>
+        <v>36.09</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1654,37 +1657,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="C10">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="D10">
-        <v>2.28</v>
+        <v>3.28</v>
       </c>
       <c r="E10">
-        <v>4.22</v>
+        <v>5.65</v>
       </c>
       <c r="F10">
-        <v>7.01</v>
+        <v>8.41</v>
       </c>
       <c r="G10">
-        <v>9.07</v>
+        <v>10.56</v>
       </c>
       <c r="H10">
-        <v>13.13</v>
+        <v>14.55</v>
       </c>
       <c r="I10">
-        <v>15.28</v>
+        <v>15.97</v>
       </c>
       <c r="J10">
-        <v>20.92</v>
+        <v>18.77</v>
       </c>
       <c r="K10">
-        <v>26.76</v>
+        <v>20.63</v>
       </c>
       <c r="L10">
-        <v>23.91</v>
+        <v>30.08</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1692,37 +1695,37 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D11">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="F11">
-        <v>5.34</v>
+        <v>3.74</v>
       </c>
       <c r="G11">
-        <v>7.59</v>
+        <v>7.76</v>
       </c>
       <c r="H11">
-        <v>11.81</v>
+        <v>11.24</v>
       </c>
       <c r="I11">
-        <v>17.67</v>
+        <v>17.35</v>
       </c>
       <c r="J11">
-        <v>24.64</v>
+        <v>24.54</v>
       </c>
       <c r="K11">
-        <v>28.76</v>
+        <v>31.38</v>
       </c>
       <c r="L11">
-        <v>17.12</v>
+        <v>15.49</v>
       </c>
     </row>
   </sheetData>
@@ -1757,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -1774,13 +1777,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -1791,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1808,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1825,13 +1828,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1842,13 +1845,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
@@ -1859,13 +1862,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -1882,7 +1885,7 @@
         <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1893,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -1910,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
@@ -1929,13 +1932,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1952,171 +1955,195 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>-14</v>
+      </c>
+      <c r="D6">
+        <v>-16</v>
+      </c>
+      <c r="E6">
+        <v>-8</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+      <c r="G8">
         <v>-6</v>
       </c>
-      <c r="C8">
-        <v>-14</v>
-      </c>
-      <c r="D8">
-        <v>-16</v>
-      </c>
-      <c r="E8">
-        <v>-8</v>
-      </c>
-      <c r="F8">
-        <v>-7</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2135,53 +2162,62 @@
       <c r="F9">
         <v>-11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>-11</v>
+      </c>
+      <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-8</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-8</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-16</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-23</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-14</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-5</v>
-      </c>
-      <c r="E11">
-        <v>-8</v>
-      </c>
-      <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>-22</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2192,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2200,25 +2236,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2304,25 +2340,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2330,24 +2366,76 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="57">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,19 +52,22 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -124,34 +127,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -594,31 +594,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -629,19 +629,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -664,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,16 +699,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -731,34 +731,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,34 +766,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,34 +801,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -836,19 +836,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -874,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -886,16 +886,16 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -906,34 +906,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +951,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -965,13 +965,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -979,13 +979,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -993,13 +993,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1007,13 +1007,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1021,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1049,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1077,13 +1077,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1094,10 +1094,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1115,16 +1115,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D2">
-        <v>-0.2999999999999998</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1149,16 +1149,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>-0.2000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1166,16 +1166,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D4">
-        <v>0.7999999999999998</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1200,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D6">
-        <v>-0.7000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1217,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000002</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1234,13 +1234,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>0.6000000000000001</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1254,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1268,16 +1268,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1285,16 +1285,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="D11">
-        <v>0.3999999999999999</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1312,192 +1312,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>32.94</v>
+        <v>30.37</v>
       </c>
       <c r="C2">
-        <v>24.03</v>
+        <v>20.88</v>
       </c>
       <c r="D2">
-        <v>16.94</v>
+        <v>16.27</v>
       </c>
       <c r="E2">
-        <v>11.59</v>
+        <v>10.27</v>
       </c>
       <c r="F2">
-        <v>7.109999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="G2">
-        <v>3.94</v>
+        <v>5.71</v>
       </c>
       <c r="H2">
-        <v>2.13</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>0.8500000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="J2">
-        <v>0.36</v>
+        <v>1.32</v>
       </c>
       <c r="K2">
-        <v>0.11</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
-        <v>96.55</v>
+        <v>92.40999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>21.12</v>
+        <v>27.45</v>
       </c>
       <c r="C3">
-        <v>19.25</v>
+        <v>24.86</v>
       </c>
       <c r="D3">
-        <v>15.49</v>
+        <v>18.97</v>
       </c>
       <c r="E3">
-        <v>14.03</v>
+        <v>11.33</v>
       </c>
       <c r="F3">
-        <v>9.59</v>
+        <v>7.98</v>
       </c>
       <c r="G3">
-        <v>8.050000000000001</v>
+        <v>4.53</v>
       </c>
       <c r="H3">
-        <v>5.71</v>
+        <v>2.37</v>
       </c>
       <c r="I3">
-        <v>3.84</v>
+        <v>1.68</v>
       </c>
       <c r="J3">
-        <v>2.04</v>
+        <v>0.59</v>
       </c>
       <c r="K3">
-        <v>0.88</v>
+        <v>0.24</v>
       </c>
       <c r="L3">
-        <v>87.53000000000002</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>20.75</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>19.97</v>
+        <v>14.63</v>
       </c>
       <c r="D4">
-        <v>17.36</v>
+        <v>13.84</v>
       </c>
       <c r="E4">
-        <v>14.16</v>
+        <v>11.92</v>
       </c>
       <c r="F4">
-        <v>10.08</v>
+        <v>13.98</v>
       </c>
       <c r="G4">
-        <v>7.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H4">
-        <v>4.84</v>
+        <v>8.02</v>
       </c>
       <c r="I4">
-        <v>3.2</v>
+        <v>6.73</v>
       </c>
       <c r="J4">
-        <v>1.61</v>
+        <v>4.36</v>
       </c>
       <c r="K4">
-        <v>0.63</v>
+        <v>3.02</v>
       </c>
       <c r="L4">
-        <v>89.72</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>9.26</v>
+        <v>10.39</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>11.91</v>
       </c>
       <c r="D5">
-        <v>12.61</v>
+        <v>11.44</v>
       </c>
       <c r="E5">
-        <v>13.47</v>
+        <v>12.69</v>
       </c>
       <c r="F5">
-        <v>12.07</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>13.59</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H5">
-        <v>9.879999999999999</v>
+        <v>10.97</v>
       </c>
       <c r="I5">
-        <v>8.25</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="J5">
-        <v>6.4</v>
+        <v>6.23</v>
       </c>
       <c r="K5">
-        <v>3.47</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="L5">
-        <v>72</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1505,37 +1505,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>5.69</v>
+        <v>6.09</v>
       </c>
       <c r="C6">
-        <v>7.739999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="D6">
-        <v>10.83</v>
+        <v>8.67</v>
       </c>
       <c r="E6">
-        <v>11.06</v>
+        <v>13.29</v>
       </c>
       <c r="F6">
-        <v>12.35</v>
+        <v>10.78</v>
       </c>
       <c r="G6">
-        <v>13.66</v>
+        <v>10.44</v>
       </c>
       <c r="H6">
-        <v>11.65</v>
+        <v>13.2</v>
       </c>
       <c r="I6">
-        <v>11.57</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J6">
-        <v>8.870000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="K6">
-        <v>6.58</v>
+        <v>9.4</v>
       </c>
       <c r="L6">
-        <v>61.33</v>
+        <v>57.76000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1543,37 +1543,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.59</v>
+        <v>3.91</v>
       </c>
       <c r="C7">
-        <v>7.75</v>
+        <v>6.02</v>
       </c>
       <c r="D7">
-        <v>10.53</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="E7">
-        <v>11.4</v>
+        <v>10.93</v>
       </c>
       <c r="F7">
-        <v>14.54</v>
+        <v>8.85</v>
       </c>
       <c r="G7">
-        <v>12.51</v>
+        <v>11.75</v>
       </c>
       <c r="H7">
-        <v>11.78</v>
+        <v>13.7</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="J7">
-        <v>8.57</v>
+        <v>13.07</v>
       </c>
       <c r="K7">
-        <v>6.329999999999999</v>
+        <v>13.43</v>
       </c>
       <c r="L7">
-        <v>62.32</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1584,148 +1584,148 @@
         <v>2.84</v>
       </c>
       <c r="C8">
-        <v>5.45</v>
+        <v>4.75</v>
       </c>
       <c r="D8">
-        <v>7.13</v>
+        <v>7.31</v>
       </c>
       <c r="E8">
-        <v>8.83</v>
+        <v>9.69</v>
       </c>
       <c r="F8">
-        <v>12.63</v>
+        <v>8.43</v>
       </c>
       <c r="G8">
-        <v>12.01</v>
+        <v>14.13</v>
       </c>
       <c r="H8">
-        <v>13.33</v>
+        <v>11.72</v>
       </c>
       <c r="I8">
-        <v>13.74</v>
+        <v>12.39</v>
       </c>
       <c r="J8">
-        <v>12.45</v>
+        <v>14.16</v>
       </c>
       <c r="K8">
-        <v>11.59</v>
+        <v>14.58</v>
       </c>
       <c r="L8">
-        <v>48.88999999999999</v>
+        <v>47.15</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>1.15</v>
+        <v>2.07</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>4.27</v>
       </c>
       <c r="D9">
-        <v>4.83</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="E9">
-        <v>7.359999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F9">
-        <v>9.48</v>
+        <v>11.16</v>
       </c>
       <c r="G9">
-        <v>10.52</v>
+        <v>13.89</v>
       </c>
       <c r="H9">
-        <v>14.89</v>
+        <v>12.36</v>
       </c>
       <c r="I9">
-        <v>14.23</v>
+        <v>15.41</v>
       </c>
       <c r="J9">
-        <v>16.39</v>
+        <v>13.4</v>
       </c>
       <c r="K9">
-        <v>18.4</v>
+        <v>11.76</v>
       </c>
       <c r="L9">
-        <v>36.09</v>
+        <v>47.06999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.51</v>
+        <v>1.23</v>
       </c>
       <c r="C10">
-        <v>1.67</v>
+        <v>2.53</v>
       </c>
       <c r="D10">
-        <v>3.28</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="E10">
-        <v>5.65</v>
+        <v>6.4</v>
       </c>
       <c r="F10">
-        <v>8.41</v>
+        <v>7.98</v>
       </c>
       <c r="G10">
-        <v>10.56</v>
+        <v>12.23</v>
       </c>
       <c r="H10">
-        <v>14.55</v>
+        <v>10.52</v>
       </c>
       <c r="I10">
-        <v>15.97</v>
+        <v>15.25</v>
       </c>
       <c r="J10">
-        <v>18.77</v>
+        <v>18.42</v>
       </c>
       <c r="K10">
-        <v>20.63</v>
+        <v>20.59</v>
       </c>
       <c r="L10">
-        <v>30.08</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>0.39</v>
+        <v>1.66</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3.51</v>
       </c>
       <c r="E11">
-        <v>2.45</v>
+        <v>5.45</v>
       </c>
       <c r="F11">
-        <v>3.74</v>
+        <v>8.93</v>
       </c>
       <c r="G11">
-        <v>7.76</v>
+        <v>10.19</v>
       </c>
       <c r="H11">
-        <v>11.24</v>
+        <v>13.64</v>
       </c>
       <c r="I11">
-        <v>17.35</v>
+        <v>17.01</v>
       </c>
       <c r="J11">
-        <v>24.54</v>
+        <v>18.36</v>
       </c>
       <c r="K11">
-        <v>31.38</v>
+        <v>20.6</v>
       </c>
       <c r="L11">
-        <v>15.49</v>
+        <v>30.39</v>
       </c>
     </row>
   </sheetData>
@@ -1743,16 +1743,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1763,13 +1763,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1780,13 +1780,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1794,16 +1794,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1814,13 +1814,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1828,16 +1828,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1882,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1899,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1916,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1932,36 +1932,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1983,11 +1986,14 @@
       <c r="G2">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2009,37 +2015,43 @@
       <c r="G3">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2061,37 +2073,43 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2113,11 +2131,14 @@
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,11 +2160,14 @@
       <c r="G8">
         <v>-6</v>
       </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2165,11 +2189,14 @@
       <c r="G9">
         <v>-11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2191,11 +2218,14 @@
       <c r="G10">
         <v>-13</v>
       </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2217,8 +2247,11 @@
       <c r="G11">
         <v>-22</v>
       </c>
-      <c r="H11" t="s">
-        <v>43</v>
+      <c r="H11">
+        <v>-19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2261,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2314,25 +2347,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2340,25 +2373,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2366,25 +2399,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2395,22 +2428,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2418,25 +2451,51 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
-        <v>7</v>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="60">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,22 +52,25 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,30 +130,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -594,31 +603,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -629,28 +638,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -661,31 +670,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -699,16 +708,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -717,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -731,34 +740,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -769,31 +778,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,31 +810,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -836,31 +845,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -874,28 +883,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -906,34 +915,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +960,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -965,13 +974,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -979,13 +988,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -993,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1007,13 +1016,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1021,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1035,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1049,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1063,13 +1072,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1080,10 +1089,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1094,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1115,16 +1124,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1135,13 +1144,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1149,16 +1158,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>4.6</v>
-      </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1166,16 +1175,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D4">
-        <v>-0.7999999999999998</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1183,16 +1192,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1200,16 +1209,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1217,16 +1226,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>0.8999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1234,16 +1243,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>0.7999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1251,16 +1260,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>-0.2999999999999998</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1268,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1288,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>-0.7999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1312,192 +1321,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>30.37</v>
+        <v>28.97</v>
       </c>
       <c r="C2">
-        <v>20.88</v>
+        <v>23.32</v>
       </c>
       <c r="D2">
-        <v>16.27</v>
+        <v>15.8</v>
       </c>
       <c r="E2">
-        <v>10.27</v>
+        <v>13.74</v>
       </c>
       <c r="F2">
-        <v>8.91</v>
+        <v>7.26</v>
       </c>
       <c r="G2">
-        <v>5.71</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="H2">
-        <v>3.5</v>
+        <v>3.77</v>
       </c>
       <c r="I2">
-        <v>2.17</v>
+        <v>1.84</v>
       </c>
       <c r="J2">
-        <v>1.32</v>
+        <v>0.76</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="L2">
-        <v>92.40999999999998</v>
+        <v>93.37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>27.45</v>
+        <v>19.41</v>
       </c>
       <c r="C3">
-        <v>24.86</v>
+        <v>16.92</v>
       </c>
       <c r="D3">
-        <v>18.97</v>
+        <v>14.96</v>
       </c>
       <c r="E3">
-        <v>11.33</v>
+        <v>15.72</v>
       </c>
       <c r="F3">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="G3">
-        <v>4.53</v>
+        <v>8.9</v>
       </c>
       <c r="H3">
-        <v>2.37</v>
+        <v>7.7</v>
       </c>
       <c r="I3">
-        <v>1.68</v>
+        <v>3.86</v>
       </c>
       <c r="J3">
-        <v>0.59</v>
+        <v>3.01</v>
       </c>
       <c r="K3">
-        <v>0.24</v>
+        <v>1.59</v>
       </c>
       <c r="L3">
-        <v>95.12</v>
+        <v>83.84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14.53</v>
       </c>
       <c r="C4">
-        <v>14.63</v>
+        <v>13.38</v>
       </c>
       <c r="D4">
-        <v>13.84</v>
+        <v>14.21</v>
       </c>
       <c r="E4">
-        <v>11.92</v>
+        <v>13.21</v>
       </c>
       <c r="F4">
-        <v>13.98</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
+        <v>12.34</v>
       </c>
       <c r="H4">
-        <v>8.02</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="I4">
-        <v>6.73</v>
+        <v>5.55</v>
       </c>
       <c r="J4">
-        <v>4.36</v>
+        <v>5.7</v>
       </c>
       <c r="K4">
-        <v>3.02</v>
+        <v>3.49</v>
       </c>
       <c r="L4">
-        <v>77.87</v>
+        <v>75.88000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10.39</v>
+        <v>11.98</v>
       </c>
       <c r="C5">
-        <v>11.91</v>
+        <v>11.85</v>
       </c>
       <c r="D5">
-        <v>11.44</v>
+        <v>14.1</v>
       </c>
       <c r="E5">
-        <v>12.69</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>12.14</v>
       </c>
       <c r="G5">
-        <v>8.630000000000001</v>
+        <v>13.06</v>
       </c>
       <c r="H5">
-        <v>10.97</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="I5">
-        <v>8.959999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>6.23</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="K5">
-        <v>5.779999999999999</v>
+        <v>5.41</v>
       </c>
       <c r="L5">
-        <v>68.06</v>
+        <v>71.81999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1505,37 +1514,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>6.09</v>
+        <v>11.05</v>
       </c>
       <c r="C6">
-        <v>8.49</v>
+        <v>10.8</v>
       </c>
       <c r="D6">
-        <v>8.67</v>
+        <v>13.72</v>
       </c>
       <c r="E6">
-        <v>13.29</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6">
-        <v>10.78</v>
+        <v>9.76</v>
       </c>
       <c r="G6">
-        <v>10.44</v>
+        <v>14.69</v>
       </c>
       <c r="H6">
-        <v>13.2</v>
+        <v>8.24</v>
       </c>
       <c r="I6">
-        <v>9.550000000000001</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J6">
-        <v>10.09</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K6">
-        <v>9.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="L6">
-        <v>57.76000000000001</v>
+        <v>69.57000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1543,37 +1552,37 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="C7">
-        <v>6.02</v>
+        <v>7.02</v>
       </c>
       <c r="D7">
-        <v>7.489999999999999</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="E7">
-        <v>10.93</v>
+        <v>7.33</v>
       </c>
       <c r="F7">
-        <v>8.85</v>
+        <v>13.46</v>
       </c>
       <c r="G7">
-        <v>11.75</v>
+        <v>10.72</v>
       </c>
       <c r="H7">
-        <v>13.7</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I7">
-        <v>10.85</v>
+        <v>13.92</v>
       </c>
       <c r="J7">
-        <v>13.07</v>
+        <v>12.55</v>
       </c>
       <c r="K7">
-        <v>13.43</v>
+        <v>14.66</v>
       </c>
       <c r="L7">
-        <v>48.95</v>
+        <v>50.34</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1581,37 +1590,37 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.84</v>
+        <v>3.66</v>
       </c>
       <c r="C8">
-        <v>4.75</v>
+        <v>5.94</v>
       </c>
       <c r="D8">
-        <v>7.31</v>
+        <v>6.35</v>
       </c>
       <c r="E8">
-        <v>9.69</v>
+        <v>8.07</v>
       </c>
       <c r="F8">
-        <v>8.43</v>
+        <v>12.94</v>
       </c>
       <c r="G8">
-        <v>14.13</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="H8">
-        <v>11.72</v>
+        <v>11.01</v>
       </c>
       <c r="I8">
-        <v>12.39</v>
+        <v>14.5</v>
       </c>
       <c r="J8">
-        <v>14.16</v>
+        <v>12.99</v>
       </c>
       <c r="K8">
-        <v>14.58</v>
+        <v>15.83</v>
       </c>
       <c r="L8">
-        <v>47.15</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1619,37 +1628,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2.07</v>
+        <v>3.32</v>
       </c>
       <c r="C9">
-        <v>4.27</v>
+        <v>5.59</v>
       </c>
       <c r="D9">
-        <v>7.649999999999999</v>
+        <v>6.34</v>
       </c>
       <c r="E9">
-        <v>8.029999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="F9">
-        <v>11.16</v>
+        <v>12.54</v>
       </c>
       <c r="G9">
-        <v>13.89</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H9">
-        <v>12.36</v>
+        <v>13.77</v>
       </c>
       <c r="I9">
-        <v>15.41</v>
+        <v>14.44</v>
       </c>
       <c r="J9">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="K9">
-        <v>11.76</v>
+        <v>13.77</v>
       </c>
       <c r="L9">
-        <v>47.06999999999999</v>
+        <v>45.52</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1657,37 +1666,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="C10">
-        <v>2.53</v>
+        <v>3.03</v>
       </c>
       <c r="D10">
-        <v>4.850000000000001</v>
+        <v>4.04</v>
       </c>
       <c r="E10">
-        <v>6.4</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="F10">
-        <v>7.98</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G10">
-        <v>12.23</v>
+        <v>8.59</v>
       </c>
       <c r="H10">
-        <v>10.52</v>
+        <v>15.62</v>
       </c>
       <c r="I10">
-        <v>15.25</v>
+        <v>14.4</v>
       </c>
       <c r="J10">
-        <v>18.42</v>
+        <v>16.87</v>
       </c>
       <c r="K10">
-        <v>20.59</v>
+        <v>19.76</v>
       </c>
       <c r="L10">
-        <v>35.22</v>
+        <v>33.34999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1695,37 +1704,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C11">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="D11">
-        <v>3.51</v>
+        <v>3.19</v>
       </c>
       <c r="E11">
-        <v>5.45</v>
+        <v>6.52</v>
       </c>
       <c r="F11">
-        <v>8.93</v>
+        <v>7.13</v>
       </c>
       <c r="G11">
-        <v>10.19</v>
+        <v>10.66</v>
       </c>
       <c r="H11">
-        <v>13.64</v>
+        <v>15.38</v>
       </c>
       <c r="I11">
-        <v>17.01</v>
+        <v>14.75</v>
       </c>
       <c r="J11">
-        <v>18.36</v>
+        <v>19.6</v>
       </c>
       <c r="K11">
-        <v>20.6</v>
+        <v>19.63</v>
       </c>
       <c r="L11">
-        <v>30.39</v>
+        <v>30.64</v>
       </c>
     </row>
   </sheetData>
@@ -1743,16 +1752,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1763,13 +1772,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1780,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1794,16 +1803,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1814,13 +1823,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1828,16 +1837,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1848,13 +1857,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1862,16 +1871,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1879,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1899,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1916,13 +1925,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1932,39 +1941,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1989,11 +2001,14 @@
       <c r="H2">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2018,40 +2033,46 @@
       <c r="H3">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2076,40 +2097,46 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>-14</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="E6">
+        <v>-8</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2134,69 +2161,78 @@
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>-11</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-10</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>-11</v>
-      </c>
-      <c r="H9">
-        <v>-12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2221,11 +2257,14 @@
       <c r="H10">
         <v>-14</v>
       </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2250,8 +2289,11 @@
       <c r="H11">
         <v>-19</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
+      <c r="I11">
+        <v>-20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2261,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2269,25 +2311,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2321,25 +2363,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>-8</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2347,25 +2389,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="G4">
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2376,22 +2418,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>-19</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2399,25 +2441,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2425,25 +2467,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2451,25 +2493,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
+        <v>-13</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
         <v>6</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2480,21 +2522,73 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>-6</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="62">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,25 +52,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,31 +133,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -603,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -618,16 +624,16 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -638,10 +644,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -656,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -673,31 +679,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +711,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -752,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -761,13 +767,13 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,19 +781,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -796,13 +802,13 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -816,25 +822,25 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -845,34 +851,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -883,13 +889,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -901,10 +907,10 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -918,19 +924,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -939,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -960,13 +966,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -974,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -988,13 +994,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1002,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1016,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1030,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1044,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1072,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1089,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1103,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1124,16 +1130,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1144,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1158,16 +1164,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1175,16 +1181,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="D4">
-        <v>-0.09999999999999964</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1192,16 +1198,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>-0.2000000000000002</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1212,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D6">
-        <v>-0.7999999999999998</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1229,13 +1235,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1246,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1263,13 +1269,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1280,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1303,7 +1309,7 @@
         <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1321,40 +1327,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1362,37 +1368,37 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>28.97</v>
+        <v>22.87</v>
       </c>
       <c r="C2">
-        <v>23.32</v>
+        <v>22.39</v>
       </c>
       <c r="D2">
-        <v>15.8</v>
+        <v>20.2</v>
       </c>
       <c r="E2">
-        <v>13.74</v>
+        <v>11.39</v>
       </c>
       <c r="F2">
-        <v>7.26</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="G2">
-        <v>4.279999999999999</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="H2">
-        <v>3.77</v>
+        <v>2.4</v>
       </c>
       <c r="I2">
-        <v>1.84</v>
+        <v>2.13</v>
       </c>
       <c r="J2">
-        <v>0.76</v>
+        <v>1.09</v>
       </c>
       <c r="K2">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="L2">
-        <v>93.37</v>
+        <v>93.91000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1400,37 +1406,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>19.41</v>
+        <v>22.24</v>
       </c>
       <c r="C3">
-        <v>16.92</v>
+        <v>19.75</v>
       </c>
       <c r="D3">
-        <v>14.96</v>
+        <v>16.18</v>
       </c>
       <c r="E3">
-        <v>15.72</v>
+        <v>9.56</v>
       </c>
       <c r="F3">
-        <v>7.93</v>
+        <v>13.73</v>
       </c>
       <c r="G3">
-        <v>8.9</v>
+        <v>8.09</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>3.61</v>
       </c>
       <c r="I3">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="J3">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="K3">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="L3">
-        <v>83.84</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1438,113 +1444,113 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>14.53</v>
+        <v>17.02</v>
       </c>
       <c r="C4">
-        <v>13.38</v>
+        <v>16.29</v>
       </c>
       <c r="D4">
-        <v>14.21</v>
+        <v>11.91</v>
       </c>
       <c r="E4">
-        <v>13.21</v>
+        <v>11.28</v>
       </c>
       <c r="F4">
-        <v>8.210000000000001</v>
+        <v>16.07</v>
       </c>
       <c r="G4">
-        <v>12.34</v>
+        <v>6.81</v>
       </c>
       <c r="H4">
-        <v>9.379999999999999</v>
+        <v>6.36</v>
       </c>
       <c r="I4">
-        <v>5.55</v>
+        <v>7.55</v>
       </c>
       <c r="J4">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>3.49</v>
+        <v>3.11</v>
       </c>
       <c r="L4">
-        <v>75.88000000000001</v>
+        <v>79.38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>11.98</v>
+        <v>12.9</v>
       </c>
       <c r="C5">
-        <v>11.85</v>
+        <v>11.41</v>
       </c>
       <c r="D5">
-        <v>14.1</v>
+        <v>10.1</v>
       </c>
       <c r="E5">
-        <v>8.690000000000001</v>
+        <v>15.94</v>
       </c>
       <c r="F5">
-        <v>12.14</v>
+        <v>10.31</v>
       </c>
       <c r="G5">
-        <v>13.06</v>
+        <v>6.09</v>
       </c>
       <c r="H5">
-        <v>6.600000000000001</v>
+        <v>12.55</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="J5">
-        <v>7.470000000000001</v>
+        <v>5.88</v>
       </c>
       <c r="K5">
-        <v>5.41</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="L5">
-        <v>71.81999999999999</v>
+        <v>66.75</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>11.05</v>
+        <v>11.57</v>
       </c>
       <c r="C6">
-        <v>10.8</v>
+        <v>11.77</v>
       </c>
       <c r="D6">
-        <v>13.72</v>
+        <v>8.17</v>
       </c>
       <c r="E6">
-        <v>9.550000000000001</v>
+        <v>15.01</v>
       </c>
       <c r="F6">
-        <v>9.76</v>
+        <v>13.27</v>
       </c>
       <c r="G6">
-        <v>14.69</v>
+        <v>6.09</v>
       </c>
       <c r="H6">
-        <v>8.24</v>
+        <v>11.13</v>
       </c>
       <c r="I6">
-        <v>8.039999999999999</v>
+        <v>10.26</v>
       </c>
       <c r="J6">
-        <v>8.550000000000001</v>
+        <v>6.32</v>
       </c>
       <c r="K6">
-        <v>5.600000000000001</v>
+        <v>6.41</v>
       </c>
       <c r="L6">
-        <v>69.57000000000001</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1552,113 +1558,113 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.52</v>
+        <v>6.39</v>
       </c>
       <c r="C7">
-        <v>7.02</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="D7">
-        <v>7.290000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="E7">
-        <v>7.33</v>
+        <v>13.44</v>
       </c>
       <c r="F7">
-        <v>13.46</v>
+        <v>6.25</v>
       </c>
       <c r="G7">
-        <v>10.72</v>
+        <v>10.62</v>
       </c>
       <c r="H7">
-        <v>8.529999999999999</v>
+        <v>16.1</v>
       </c>
       <c r="I7">
-        <v>13.92</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="J7">
-        <v>12.55</v>
+        <v>9.67</v>
       </c>
       <c r="K7">
-        <v>14.66</v>
+        <v>12.29</v>
       </c>
       <c r="L7">
-        <v>50.34</v>
+        <v>52.89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="C8">
-        <v>5.94</v>
+        <v>4.15</v>
       </c>
       <c r="D8">
-        <v>6.35</v>
+        <v>7.79</v>
       </c>
       <c r="E8">
-        <v>8.07</v>
+        <v>7.03</v>
       </c>
       <c r="F8">
-        <v>12.94</v>
+        <v>10.04</v>
       </c>
       <c r="G8">
-        <v>8.709999999999999</v>
+        <v>16.29</v>
       </c>
       <c r="H8">
-        <v>11.01</v>
+        <v>10.58</v>
       </c>
       <c r="I8">
-        <v>14.5</v>
+        <v>14.33</v>
       </c>
       <c r="J8">
-        <v>12.99</v>
+        <v>15.46</v>
       </c>
       <c r="K8">
-        <v>15.83</v>
+        <v>11.66</v>
       </c>
       <c r="L8">
-        <v>45.67</v>
+        <v>47.97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>3.32</v>
+        <v>2.65</v>
       </c>
       <c r="C9">
-        <v>5.59</v>
+        <v>3.91</v>
       </c>
       <c r="D9">
-        <v>6.34</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E9">
-        <v>9.68</v>
+        <v>8.24</v>
       </c>
       <c r="F9">
-        <v>12.54</v>
+        <v>5.56</v>
       </c>
       <c r="G9">
-        <v>8.050000000000001</v>
+        <v>13.92</v>
       </c>
       <c r="H9">
-        <v>13.77</v>
+        <v>14.17</v>
       </c>
       <c r="I9">
-        <v>14.44</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="J9">
-        <v>12.5</v>
+        <v>15.59</v>
       </c>
       <c r="K9">
-        <v>13.77</v>
+        <v>18.28</v>
       </c>
       <c r="L9">
-        <v>45.52</v>
+        <v>42.31999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1666,37 +1672,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="C10">
-        <v>3.03</v>
+        <v>2.21</v>
       </c>
       <c r="D10">
-        <v>4.04</v>
+        <v>4.74</v>
       </c>
       <c r="E10">
-        <v>7.489999999999999</v>
+        <v>4.47</v>
       </c>
       <c r="F10">
-        <v>8.630000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="G10">
-        <v>8.59</v>
+        <v>13.71</v>
       </c>
       <c r="H10">
-        <v>15.62</v>
+        <v>10.86</v>
       </c>
       <c r="I10">
-        <v>14.4</v>
+        <v>13.81</v>
       </c>
       <c r="J10">
-        <v>16.87</v>
+        <v>20.27</v>
       </c>
       <c r="K10">
-        <v>19.76</v>
+        <v>22.72</v>
       </c>
       <c r="L10">
-        <v>33.34999999999999</v>
+        <v>32.34</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1704,37 +1710,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.9900000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="C11">
-        <v>2.15</v>
+        <v>1.59</v>
       </c>
       <c r="D11">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="E11">
-        <v>6.52</v>
+        <v>3.64</v>
       </c>
       <c r="F11">
-        <v>7.13</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="G11">
-        <v>10.66</v>
+        <v>11.29</v>
       </c>
       <c r="H11">
-        <v>15.38</v>
+        <v>12.24</v>
       </c>
       <c r="I11">
-        <v>14.75</v>
+        <v>20.7</v>
       </c>
       <c r="J11">
-        <v>19.6</v>
+        <v>20.14</v>
       </c>
       <c r="K11">
-        <v>19.63</v>
+        <v>17.91</v>
       </c>
       <c r="L11">
-        <v>30.64</v>
+        <v>29.01</v>
       </c>
     </row>
   </sheetData>
@@ -1752,16 +1758,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1772,13 +1778,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1789,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1806,13 +1812,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1823,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1840,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1857,13 +1863,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1877,7 +1883,7 @@
         <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1891,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1908,10 +1914,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-18</v>
+        <v>-29</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1925,13 +1931,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-20</v>
+        <v>-29</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1941,42 +1947,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2004,11 +2013,14 @@
       <c r="I2">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2036,11 +2048,14 @@
       <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2068,11 +2083,14 @@
       <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2100,11 +2118,14 @@
       <c r="I5">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2132,11 +2153,14 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2164,11 +2188,14 @@
       <c r="I7">
         <v>-2</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2196,11 +2223,14 @@
       <c r="I8">
         <v>-8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,11 +2258,14 @@
       <c r="I9">
         <v>-13</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>-18</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2260,11 +2293,14 @@
       <c r="I10">
         <v>-18</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>-29</v>
+      </c>
+      <c r="K10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2292,8 +2328,11 @@
       <c r="I11">
         <v>-20</v>
       </c>
-      <c r="J11" t="s">
-        <v>41</v>
+      <c r="J11">
+        <v>-29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2311,25 +2350,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2564,32 +2603,6 @@
       </c>
       <c r="H10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="61">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,28 +52,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,31 +133,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -185,6 +179,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -609,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -627,13 +624,13 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -644,13 +641,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -662,13 +659,13 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -694,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -711,34 +708,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -773,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -781,34 +778,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -822,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -851,34 +848,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -886,34 +883,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -921,16 +918,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -939,13 +936,13 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -983,10 +980,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -997,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1008,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1022,13 +1019,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1036,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1050,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1067,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1078,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1092,13 +1089,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1109,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1150,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D2">
-        <v>0.7999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1164,16 +1161,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999964</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1181,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D4">
-        <v>0.5999999999999996</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1198,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1224,7 +1221,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1232,13 +1229,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1249,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1266,16 +1263,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>-0.7000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1286,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1303,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1368,37 +1365,37 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>22.87</v>
+        <v>28.98</v>
       </c>
       <c r="C2">
-        <v>22.39</v>
+        <v>19.49</v>
       </c>
       <c r="D2">
-        <v>20.2</v>
+        <v>18.69</v>
       </c>
       <c r="E2">
-        <v>11.39</v>
+        <v>14.9</v>
       </c>
       <c r="F2">
-        <v>9.969999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="G2">
-        <v>7.090000000000001</v>
+        <v>4.78</v>
       </c>
       <c r="H2">
-        <v>2.4</v>
+        <v>5.96</v>
       </c>
       <c r="I2">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="J2">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K2">
-        <v>0.47</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L2">
-        <v>93.91000000000001</v>
+        <v>90.38000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1406,113 +1403,113 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>22.24</v>
+        <v>17.78</v>
       </c>
       <c r="C3">
-        <v>19.75</v>
+        <v>12.58</v>
       </c>
       <c r="D3">
-        <v>16.18</v>
+        <v>18.72</v>
       </c>
       <c r="E3">
-        <v>9.56</v>
+        <v>9.81</v>
       </c>
       <c r="F3">
-        <v>13.73</v>
+        <v>4.21</v>
       </c>
       <c r="G3">
-        <v>8.09</v>
+        <v>12.86</v>
       </c>
       <c r="H3">
-        <v>3.61</v>
+        <v>11.33</v>
       </c>
       <c r="I3">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="J3">
-        <v>1.98</v>
+        <v>4.45</v>
       </c>
       <c r="K3">
-        <v>1.08</v>
+        <v>4.51</v>
       </c>
       <c r="L3">
-        <v>89.55</v>
+        <v>75.96000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>17.02</v>
+        <v>13.27</v>
       </c>
       <c r="C4">
-        <v>16.29</v>
+        <v>12.31</v>
       </c>
       <c r="D4">
-        <v>11.91</v>
+        <v>14.63</v>
       </c>
       <c r="E4">
-        <v>11.28</v>
+        <v>4.98</v>
       </c>
       <c r="F4">
-        <v>16.07</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="G4">
-        <v>6.81</v>
+        <v>17.42</v>
       </c>
       <c r="H4">
-        <v>6.36</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I4">
-        <v>7.55</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>8.35</v>
       </c>
       <c r="K4">
-        <v>3.11</v>
+        <v>7.9</v>
       </c>
       <c r="L4">
-        <v>79.38</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>12.9</v>
+        <v>12.82</v>
       </c>
       <c r="C5">
-        <v>11.41</v>
+        <v>17.76</v>
       </c>
       <c r="D5">
-        <v>10.1</v>
+        <v>16.76</v>
       </c>
       <c r="E5">
-        <v>15.94</v>
+        <v>20.02</v>
       </c>
       <c r="F5">
-        <v>10.31</v>
+        <v>7.76</v>
       </c>
       <c r="G5">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="H5">
-        <v>12.55</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="I5">
-        <v>8.75</v>
+        <v>3.98</v>
       </c>
       <c r="J5">
-        <v>5.88</v>
+        <v>2.25</v>
       </c>
       <c r="K5">
-        <v>6.069999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="L5">
-        <v>66.75</v>
+        <v>82.09</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1520,113 +1517,113 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>11.57</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="C6">
-        <v>11.77</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D6">
-        <v>8.17</v>
+        <v>7.57</v>
       </c>
       <c r="E6">
-        <v>15.01</v>
+        <v>3.24</v>
       </c>
       <c r="F6">
-        <v>13.27</v>
+        <v>12.88</v>
       </c>
       <c r="G6">
-        <v>6.09</v>
+        <v>17.81</v>
       </c>
       <c r="H6">
-        <v>11.13</v>
+        <v>5.75</v>
       </c>
       <c r="I6">
-        <v>10.26</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>6.32</v>
+        <v>14.47</v>
       </c>
       <c r="K6">
-        <v>6.41</v>
+        <v>13.52</v>
       </c>
       <c r="L6">
-        <v>65.88</v>
+        <v>58.36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6.39</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="C7">
-        <v>6.529999999999999</v>
+        <v>7.52</v>
       </c>
       <c r="D7">
-        <v>9.66</v>
+        <v>5.04</v>
       </c>
       <c r="E7">
-        <v>13.44</v>
+        <v>13.03</v>
       </c>
       <c r="F7">
-        <v>6.25</v>
+        <v>14.99</v>
       </c>
       <c r="G7">
-        <v>10.62</v>
+        <v>5.63</v>
       </c>
       <c r="H7">
-        <v>16.1</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="I7">
-        <v>9.049999999999999</v>
+        <v>17.26</v>
       </c>
       <c r="J7">
-        <v>9.67</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>12.29</v>
+        <v>11.14</v>
       </c>
       <c r="L7">
-        <v>52.89</v>
+        <v>51.72000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2.67</v>
+        <v>5.26</v>
       </c>
       <c r="C8">
-        <v>4.15</v>
+        <v>7.44</v>
       </c>
       <c r="D8">
-        <v>7.79</v>
+        <v>4.96</v>
       </c>
       <c r="E8">
-        <v>7.03</v>
+        <v>5.24</v>
       </c>
       <c r="F8">
-        <v>10.04</v>
+        <v>16.58</v>
       </c>
       <c r="G8">
-        <v>16.29</v>
+        <v>12.78</v>
       </c>
       <c r="H8">
-        <v>10.58</v>
+        <v>4.3</v>
       </c>
       <c r="I8">
-        <v>14.33</v>
+        <v>12.65</v>
       </c>
       <c r="J8">
-        <v>15.46</v>
+        <v>15.53</v>
       </c>
       <c r="K8">
-        <v>11.66</v>
+        <v>15.26</v>
       </c>
       <c r="L8">
-        <v>47.97</v>
+        <v>52.26000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1634,37 +1631,37 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.65</v>
+        <v>4.97</v>
       </c>
       <c r="C9">
-        <v>3.91</v>
+        <v>6.56</v>
       </c>
       <c r="D9">
-        <v>8.039999999999999</v>
+        <v>4.84</v>
       </c>
       <c r="E9">
-        <v>8.24</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F9">
-        <v>5.56</v>
+        <v>17.7</v>
       </c>
       <c r="G9">
-        <v>13.92</v>
+        <v>7.82</v>
       </c>
       <c r="H9">
-        <v>14.17</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="I9">
-        <v>9.640000000000001</v>
+        <v>15.94</v>
       </c>
       <c r="J9">
-        <v>15.59</v>
+        <v>14.24</v>
       </c>
       <c r="K9">
-        <v>18.28</v>
+        <v>12.76</v>
       </c>
       <c r="L9">
-        <v>42.31999999999999</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1672,37 +1669,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>3.28</v>
       </c>
       <c r="C10">
-        <v>2.21</v>
+        <v>4.46</v>
       </c>
       <c r="D10">
-        <v>4.74</v>
+        <v>5.09</v>
       </c>
       <c r="E10">
-        <v>4.47</v>
+        <v>11.92</v>
       </c>
       <c r="F10">
-        <v>6.01</v>
+        <v>9.66</v>
       </c>
       <c r="G10">
-        <v>13.71</v>
+        <v>5.04</v>
       </c>
       <c r="H10">
-        <v>10.86</v>
+        <v>16.24</v>
       </c>
       <c r="I10">
-        <v>13.81</v>
+        <v>17.64</v>
       </c>
       <c r="J10">
-        <v>20.27</v>
+        <v>12.05</v>
       </c>
       <c r="K10">
-        <v>22.72</v>
+        <v>14.62</v>
       </c>
       <c r="L10">
-        <v>32.34</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1710,37 +1707,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.49</v>
+        <v>1.13</v>
       </c>
       <c r="C11">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
       <c r="D11">
-        <v>3.21</v>
+        <v>3.7</v>
       </c>
       <c r="E11">
-        <v>3.64</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="F11">
-        <v>8.790000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="G11">
-        <v>11.29</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="H11">
-        <v>12.24</v>
+        <v>19.97</v>
       </c>
       <c r="I11">
-        <v>20.7</v>
+        <v>14.88</v>
       </c>
       <c r="J11">
-        <v>20.14</v>
+        <v>17.59</v>
       </c>
       <c r="K11">
-        <v>17.91</v>
+        <v>17.63</v>
       </c>
       <c r="L11">
-        <v>29.01</v>
+        <v>29.93</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1775,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1792,13 +1789,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -1809,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1829,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -1843,13 +1840,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -1860,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1880,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1903,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1911,16 +1908,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>-29</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1928,16 +1925,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1947,45 +1944,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2016,81 +2016,90 @@
       <c r="J2">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2121,81 +2130,90 @@
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2226,11 +2244,14 @@
       <c r="J8">
         <v>-8</v>
       </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,78 +2282,87 @@
       <c r="J9">
         <v>-18</v>
       </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>-23</v>
       </c>
       <c r="F10">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="G10">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="H10">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="I10">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="J10">
         <v>-29</v>
       </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-5</v>
+      </c>
+      <c r="E11">
         <v>-8</v>
       </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-16</v>
-      </c>
-      <c r="E11">
-        <v>-23</v>
-      </c>
       <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11">
+        <v>-13</v>
+      </c>
+      <c r="H11">
         <v>-14</v>
       </c>
-      <c r="G11">
-        <v>-22</v>
-      </c>
-      <c r="H11">
-        <v>-19</v>
-      </c>
       <c r="I11">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="J11">
         <v>-29</v>
       </c>
-      <c r="K11" t="s">
-        <v>45</v>
+      <c r="K11">
+        <v>-31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2350,25 +2380,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2402,25 +2432,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>-29</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2428,25 +2458,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2454,25 +2484,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2480,22 +2510,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>-8</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -2506,25 +2536,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2532,25 +2562,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2558,25 +2588,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2584,25 +2614,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-20</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="66">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,28 +52,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,25 +136,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -182,6 +194,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -606,10 +621,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -618,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -647,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -665,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -691,10 +706,10 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -714,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -723,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -743,31 +758,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -784,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -793,13 +808,13 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -813,13 +828,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -828,19 +843,19 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -851,10 +866,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -863,16 +878,16 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -883,34 +898,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -918,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -933,19 +948,19 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -963,13 +978,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -977,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -991,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1005,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1019,13 +1034,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1033,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1047,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1064,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1075,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1089,13 +1104,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1106,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1127,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1147,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1164,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1178,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D4">
-        <v>-0.9000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1195,16 +1210,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1215,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1232,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>-0.7999999999999998</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1249,13 +1264,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1263,16 +1278,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1280,16 +1295,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>3.8</v>
-      </c>
-      <c r="D10">
-        <v>0.7999999999999998</v>
-      </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1300,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D11">
         <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1324,40 +1339,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1365,37 +1380,37 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>28.98</v>
+        <v>26.51</v>
       </c>
       <c r="C2">
-        <v>19.49</v>
+        <v>25.25</v>
       </c>
       <c r="D2">
-        <v>18.69</v>
+        <v>6.31</v>
       </c>
       <c r="E2">
-        <v>14.9</v>
+        <v>10.32</v>
       </c>
       <c r="F2">
-        <v>3.54</v>
+        <v>18.11</v>
       </c>
       <c r="G2">
-        <v>4.78</v>
+        <v>6.03</v>
       </c>
       <c r="H2">
-        <v>5.96</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="I2">
-        <v>1.89</v>
+        <v>2.41</v>
       </c>
       <c r="J2">
-        <v>1.07</v>
+        <v>2.93</v>
       </c>
       <c r="K2">
-        <v>0.7000000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="L2">
-        <v>90.38000000000001</v>
+        <v>92.53000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1403,37 +1418,37 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>17.78</v>
+        <v>17.93</v>
       </c>
       <c r="C3">
-        <v>12.58</v>
+        <v>7.85</v>
       </c>
       <c r="D3">
-        <v>18.72</v>
+        <v>4.68</v>
       </c>
       <c r="E3">
-        <v>9.81</v>
+        <v>19.4</v>
       </c>
       <c r="F3">
-        <v>4.21</v>
+        <v>18.16</v>
       </c>
       <c r="G3">
-        <v>12.86</v>
+        <v>3.04</v>
       </c>
       <c r="H3">
-        <v>11.33</v>
+        <v>2.57</v>
       </c>
       <c r="I3">
-        <v>3.75</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J3">
-        <v>4.45</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="K3">
-        <v>4.51</v>
+        <v>6.87</v>
       </c>
       <c r="L3">
-        <v>75.96000000000001</v>
+        <v>71.06</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1441,37 +1456,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.27</v>
+        <v>10.56</v>
       </c>
       <c r="C4">
-        <v>12.31</v>
+        <v>3.35</v>
       </c>
       <c r="D4">
-        <v>14.63</v>
+        <v>9.26</v>
       </c>
       <c r="E4">
-        <v>4.98</v>
+        <v>19.53</v>
       </c>
       <c r="F4">
-        <v>7.140000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="G4">
-        <v>17.42</v>
+        <v>1.01</v>
       </c>
       <c r="H4">
-        <v>9.890000000000001</v>
+        <v>6.05</v>
       </c>
       <c r="I4">
-        <v>4.109999999999999</v>
+        <v>16.33</v>
       </c>
       <c r="J4">
-        <v>8.35</v>
+        <v>12.19</v>
       </c>
       <c r="K4">
-        <v>7.9</v>
+        <v>12.99</v>
       </c>
       <c r="L4">
-        <v>69.75</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1479,113 +1494,113 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12.82</v>
+        <v>9.35</v>
       </c>
       <c r="C5">
-        <v>17.76</v>
+        <v>25.33</v>
       </c>
       <c r="D5">
-        <v>16.76</v>
+        <v>13.52</v>
       </c>
       <c r="E5">
-        <v>20.02</v>
+        <v>7.68</v>
       </c>
       <c r="F5">
-        <v>7.76</v>
+        <v>19.82</v>
       </c>
       <c r="G5">
-        <v>6.97</v>
+        <v>11.71</v>
       </c>
       <c r="H5">
-        <v>9.719999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="I5">
-        <v>3.98</v>
+        <v>3.41</v>
       </c>
       <c r="J5">
-        <v>2.25</v>
+        <v>5.06</v>
       </c>
       <c r="K5">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="L5">
-        <v>82.09</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>7.000000000000001</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="C6">
-        <v>9.859999999999999</v>
+        <v>5.09</v>
       </c>
       <c r="D6">
-        <v>7.57</v>
+        <v>14.51</v>
       </c>
       <c r="E6">
-        <v>3.24</v>
+        <v>11.46</v>
       </c>
       <c r="F6">
-        <v>12.88</v>
+        <v>2.05</v>
       </c>
       <c r="G6">
-        <v>17.81</v>
+        <v>4.44</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>17.7</v>
       </c>
       <c r="I6">
-        <v>7.9</v>
+        <v>16.31</v>
       </c>
       <c r="J6">
-        <v>14.47</v>
+        <v>6.77</v>
       </c>
       <c r="K6">
-        <v>13.52</v>
+        <v>13.84</v>
       </c>
       <c r="L6">
-        <v>58.36</v>
+        <v>45.38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>5.510000000000001</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="C7">
-        <v>7.52</v>
+        <v>3.26</v>
       </c>
       <c r="D7">
-        <v>5.04</v>
+        <v>11.77</v>
       </c>
       <c r="E7">
-        <v>13.03</v>
+        <v>14.18</v>
       </c>
       <c r="F7">
-        <v>14.99</v>
+        <v>3.65</v>
       </c>
       <c r="G7">
-        <v>5.63</v>
+        <v>1.76</v>
       </c>
       <c r="H7">
-        <v>9.879999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="I7">
-        <v>17.26</v>
+        <v>19.93</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>10.01</v>
       </c>
       <c r="K7">
-        <v>11.14</v>
+        <v>16.25</v>
       </c>
       <c r="L7">
-        <v>51.72000000000001</v>
+        <v>42.09</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1593,37 +1608,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.26</v>
+        <v>6.77</v>
       </c>
       <c r="C8">
-        <v>7.44</v>
+        <v>7.27</v>
       </c>
       <c r="D8">
-        <v>4.96</v>
+        <v>13.52</v>
       </c>
       <c r="E8">
-        <v>5.24</v>
+        <v>6.84</v>
       </c>
       <c r="F8">
-        <v>16.58</v>
+        <v>1.67</v>
       </c>
       <c r="G8">
-        <v>12.78</v>
+        <v>9.69</v>
       </c>
       <c r="H8">
-        <v>4.3</v>
+        <v>22.35</v>
       </c>
       <c r="I8">
-        <v>12.65</v>
+        <v>10.26</v>
       </c>
       <c r="J8">
-        <v>15.53</v>
+        <v>7.99</v>
       </c>
       <c r="K8">
-        <v>15.26</v>
+        <v>13.64</v>
       </c>
       <c r="L8">
-        <v>52.26000000000001</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1631,113 +1646,113 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4.97</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C9">
-        <v>6.56</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="D9">
-        <v>4.84</v>
+        <v>8.9</v>
       </c>
       <c r="E9">
-        <v>8.210000000000001</v>
+        <v>2.94</v>
       </c>
       <c r="F9">
-        <v>17.7</v>
+        <v>8.48</v>
       </c>
       <c r="G9">
-        <v>7.82</v>
+        <v>22.37</v>
       </c>
       <c r="H9">
-        <v>6.959999999999999</v>
+        <v>12.22</v>
       </c>
       <c r="I9">
-        <v>15.94</v>
+        <v>6.21</v>
       </c>
       <c r="J9">
-        <v>14.24</v>
+        <v>15.61</v>
       </c>
       <c r="K9">
-        <v>12.76</v>
+        <v>10.67</v>
       </c>
       <c r="L9">
-        <v>50.1</v>
+        <v>55.29000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>3.28</v>
+        <v>4.72</v>
       </c>
       <c r="C10">
-        <v>4.46</v>
+        <v>8.34</v>
       </c>
       <c r="D10">
-        <v>5.09</v>
+        <v>8.15</v>
       </c>
       <c r="E10">
-        <v>11.92</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>9.66</v>
+        <v>16.13</v>
       </c>
       <c r="G10">
-        <v>5.04</v>
+        <v>21.44</v>
       </c>
       <c r="H10">
-        <v>16.24</v>
+        <v>5.83</v>
       </c>
       <c r="I10">
-        <v>17.64</v>
+        <v>9.07</v>
       </c>
       <c r="J10">
-        <v>12.05</v>
+        <v>16.09</v>
       </c>
       <c r="K10">
-        <v>14.62</v>
+        <v>6.63</v>
       </c>
       <c r="L10">
-        <v>39.45</v>
+        <v>62.38</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1.13</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2.02</v>
+        <v>6.52</v>
       </c>
       <c r="D11">
-        <v>3.7</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="E11">
-        <v>8.649999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="F11">
-        <v>5.54</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>8.890000000000001</v>
+        <v>18.51</v>
       </c>
       <c r="H11">
-        <v>19.97</v>
+        <v>19.14</v>
       </c>
       <c r="I11">
-        <v>14.88</v>
+        <v>6.18</v>
       </c>
       <c r="J11">
-        <v>17.59</v>
+        <v>13.74</v>
       </c>
       <c r="K11">
-        <v>17.63</v>
+        <v>15.28</v>
       </c>
       <c r="L11">
-        <v>29.93</v>
+        <v>45.66</v>
       </c>
     </row>
   </sheetData>
@@ -1755,16 +1770,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1775,13 +1790,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,13 +1807,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1809,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1826,13 +1841,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1840,16 +1855,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1857,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1874,16 +1889,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1891,16 +1906,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>-18</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1911,13 +1926,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-29</v>
+        <v>-23</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1928,13 +1943,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-31</v>
+        <v>-26</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1944,48 +1959,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2019,11 +2037,14 @@
       <c r="K2">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2057,11 +2078,14 @@
       <c r="K3">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2095,11 +2119,14 @@
       <c r="K4">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2133,163 +2160,178 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="G8">
+        <v>-6</v>
+      </c>
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8">
+        <v>-13</v>
+      </c>
+      <c r="J8">
+        <v>-18</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-4</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-10</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-11</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-11</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-12</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-8</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>-8</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-11</v>
       </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-13</v>
-      </c>
-      <c r="J9">
+      <c r="L9">
         <v>-18</v>
       </c>
-      <c r="K9">
-        <v>-18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2323,11 +2365,14 @@
       <c r="K10">
         <v>-29</v>
       </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2361,8 +2406,11 @@
       <c r="K11">
         <v>-31</v>
       </c>
-      <c r="L11" t="s">
-        <v>42</v>
+      <c r="L11">
+        <v>-26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2420,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,25 +2428,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2484,25 +2532,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>-26</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2510,25 +2558,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2536,25 +2584,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="G7">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2565,22 +2613,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>-19</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2588,51 +2636,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>-13</v>
-      </c>
-      <c r="F10">
-        <v>-20</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="66">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,31 +52,34 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,36 +139,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>0</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -633,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -656,10 +656,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -674,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -694,25 +694,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -723,34 +723,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -761,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -773,16 +773,16 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -796,16 +796,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -814,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -828,34 +828,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -863,22 +863,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -904,28 +904,28 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -933,34 +933,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -978,13 +978,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -992,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1006,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1020,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1048,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1065,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1076,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1104,13 +1104,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1121,10 +1121,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1142,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1162,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="D2">
-        <v>0.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1179,10 +1179,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1196,10 +1196,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1213,13 +1213,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1227,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1244,16 +1244,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>-0.09999999999999964</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>-0.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1298,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1315,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D11">
-        <v>-0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1339,420 +1339,420 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>26.51</v>
+        <v>14.63</v>
       </c>
       <c r="C2">
-        <v>25.25</v>
+        <v>13.52</v>
       </c>
       <c r="D2">
-        <v>6.31</v>
+        <v>2.28</v>
       </c>
       <c r="E2">
-        <v>10.32</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>18.11</v>
+        <v>4.34</v>
       </c>
       <c r="G2">
-        <v>6.03</v>
+        <v>23.83</v>
       </c>
       <c r="H2">
-        <v>0.6799999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="I2">
-        <v>2.41</v>
+        <v>0.97</v>
       </c>
       <c r="J2">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
-        <v>1.45</v>
+        <v>17.63</v>
       </c>
       <c r="L2">
-        <v>92.53000000000002</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>17.93</v>
+        <v>13.19</v>
       </c>
       <c r="C3">
-        <v>7.85</v>
+        <v>2.83</v>
       </c>
       <c r="D3">
-        <v>4.68</v>
+        <v>0.76</v>
       </c>
       <c r="E3">
-        <v>19.4</v>
+        <v>14.65</v>
       </c>
       <c r="F3">
-        <v>18.16</v>
+        <v>24.75</v>
       </c>
       <c r="G3">
-        <v>3.04</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H3">
-        <v>2.57</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <v>9.890000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="J3">
-        <v>9.610000000000001</v>
+        <v>18.64</v>
       </c>
       <c r="K3">
-        <v>6.87</v>
+        <v>11.71</v>
       </c>
       <c r="L3">
-        <v>71.06</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>10.56</v>
+        <v>12.34</v>
       </c>
       <c r="C4">
-        <v>3.35</v>
+        <v>22.9</v>
       </c>
       <c r="D4">
-        <v>9.26</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="E4">
-        <v>19.53</v>
+        <v>0.41</v>
       </c>
       <c r="F4">
-        <v>8.73</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="G4">
-        <v>1.01</v>
+        <v>12.63</v>
       </c>
       <c r="H4">
-        <v>6.05</v>
+        <v>24.03</v>
       </c>
       <c r="I4">
-        <v>16.33</v>
+        <v>8.08</v>
       </c>
       <c r="J4">
-        <v>12.19</v>
+        <v>0.53</v>
       </c>
       <c r="K4">
-        <v>12.99</v>
+        <v>11.2</v>
       </c>
       <c r="L4">
-        <v>52.44</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>9.35</v>
+        <v>12.31</v>
       </c>
       <c r="C5">
-        <v>25.33</v>
+        <v>4.14</v>
       </c>
       <c r="D5">
-        <v>13.52</v>
+        <v>0.21</v>
       </c>
       <c r="E5">
-        <v>7.68</v>
+        <v>4.54</v>
       </c>
       <c r="F5">
-        <v>19.82</v>
+        <v>25.4</v>
       </c>
       <c r="G5">
-        <v>11.71</v>
+        <v>16.65</v>
       </c>
       <c r="H5">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="I5">
-        <v>3.41</v>
+        <v>2.17</v>
       </c>
       <c r="J5">
-        <v>5.06</v>
+        <v>14.84</v>
       </c>
       <c r="K5">
-        <v>2.38</v>
+        <v>18.1</v>
       </c>
       <c r="L5">
-        <v>87.41</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.829999999999999</v>
+        <v>11.95</v>
       </c>
       <c r="C6">
-        <v>5.09</v>
+        <v>7.13</v>
       </c>
       <c r="D6">
-        <v>14.51</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E6">
-        <v>11.46</v>
+        <v>0.67</v>
       </c>
       <c r="F6">
-        <v>2.05</v>
+        <v>14.09</v>
       </c>
       <c r="G6">
-        <v>4.44</v>
+        <v>29.76</v>
       </c>
       <c r="H6">
-        <v>17.7</v>
+        <v>5.82</v>
       </c>
       <c r="I6">
-        <v>16.31</v>
+        <v>0.46</v>
       </c>
       <c r="J6">
-        <v>6.77</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="K6">
-        <v>13.84</v>
+        <v>21.28</v>
       </c>
       <c r="L6">
-        <v>45.38</v>
+        <v>64.15000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>7.470000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="C7">
-        <v>3.26</v>
+        <v>1.14</v>
       </c>
       <c r="D7">
-        <v>11.77</v>
+        <v>4.99</v>
       </c>
       <c r="E7">
-        <v>14.18</v>
+        <v>20.89</v>
       </c>
       <c r="F7">
-        <v>3.65</v>
+        <v>16.89</v>
       </c>
       <c r="G7">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="H7">
-        <v>11.72</v>
+        <v>1.69</v>
       </c>
       <c r="I7">
-        <v>19.93</v>
+        <v>12.7</v>
       </c>
       <c r="J7">
-        <v>10.01</v>
+        <v>21.79</v>
       </c>
       <c r="K7">
-        <v>16.25</v>
+        <v>7.7</v>
       </c>
       <c r="L7">
-        <v>42.09</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>6.77</v>
+        <v>9.16</v>
       </c>
       <c r="C8">
-        <v>7.27</v>
+        <v>1.48</v>
       </c>
       <c r="D8">
-        <v>13.52</v>
+        <v>10.28</v>
       </c>
       <c r="E8">
-        <v>6.84</v>
+        <v>21.95</v>
       </c>
       <c r="F8">
-        <v>1.67</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="G8">
-        <v>9.69</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>22.35</v>
+        <v>5.02</v>
       </c>
       <c r="I8">
-        <v>10.26</v>
+        <v>20.51</v>
       </c>
       <c r="J8">
-        <v>7.99</v>
+        <v>18.89</v>
       </c>
       <c r="K8">
-        <v>13.64</v>
+        <v>3.09</v>
       </c>
       <c r="L8">
-        <v>45.76</v>
+        <v>52.49000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4.859999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="C9">
-        <v>7.739999999999999</v>
+        <v>3.16</v>
       </c>
       <c r="D9">
-        <v>8.9</v>
+        <v>16.94</v>
       </c>
       <c r="E9">
-        <v>2.94</v>
+        <v>18.03</v>
       </c>
       <c r="F9">
-        <v>8.48</v>
+        <v>3.41</v>
       </c>
       <c r="G9">
-        <v>22.37</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="H9">
-        <v>12.22</v>
+        <v>12.2</v>
       </c>
       <c r="I9">
-        <v>6.21</v>
+        <v>25.52</v>
       </c>
       <c r="J9">
-        <v>15.61</v>
+        <v>10.33</v>
       </c>
       <c r="K9">
-        <v>10.67</v>
+        <v>0.95</v>
       </c>
       <c r="L9">
-        <v>55.29000000000001</v>
+        <v>50.99999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>4.72</v>
+        <v>6.5</v>
       </c>
       <c r="C10">
-        <v>8.34</v>
+        <v>29.94</v>
       </c>
       <c r="D10">
-        <v>8.15</v>
+        <v>24.41</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="F10">
-        <v>16.13</v>
+        <v>0.18</v>
       </c>
       <c r="G10">
-        <v>21.44</v>
+        <v>4.37</v>
       </c>
       <c r="H10">
-        <v>5.83</v>
+        <v>15.85</v>
       </c>
       <c r="I10">
-        <v>9.07</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J10">
-        <v>16.09</v>
+        <v>1.44</v>
       </c>
       <c r="K10">
-        <v>6.63</v>
+        <v>3.99</v>
       </c>
       <c r="L10">
-        <v>62.38</v>
+        <v>68.94000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1.31</v>
       </c>
       <c r="C11">
-        <v>6.52</v>
+        <v>13.76</v>
       </c>
       <c r="D11">
-        <v>9.379999999999999</v>
+        <v>32.62</v>
       </c>
       <c r="E11">
-        <v>4.05</v>
+        <v>15.22</v>
       </c>
       <c r="F11">
-        <v>3.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G11">
-        <v>18.51</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>19.14</v>
+        <v>12.95</v>
       </c>
       <c r="I11">
-        <v>6.18</v>
+        <v>14.04</v>
       </c>
       <c r="J11">
-        <v>13.74</v>
+        <v>2.85</v>
       </c>
       <c r="K11">
-        <v>15.28</v>
+        <v>4.35</v>
       </c>
       <c r="L11">
-        <v>45.66</v>
+        <v>65.81</v>
       </c>
     </row>
   </sheetData>
@@ -1770,16 +1770,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1790,13 +1790,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,13 +1807,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1824,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1841,13 +1841,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1855,16 +1855,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1872,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1909,13 +1909,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1923,16 +1923,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1940,16 +1940,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-26</v>
+        <v>-30</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1959,51 +1959,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2040,11 +2043,14 @@
       <c r="L2">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2081,11 +2087,14 @@
       <c r="L3">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2122,11 +2131,14 @@
       <c r="L4">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2163,93 +2175,102 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>-4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2286,11 +2307,14 @@
       <c r="L8">
         <v>-17</v>
       </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2327,90 +2351,99 @@
       <c r="L9">
         <v>-18</v>
       </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10">
         <v>-8</v>
       </c>
-      <c r="C10">
-        <v>-8</v>
-      </c>
-      <c r="D10">
-        <v>-16</v>
-      </c>
-      <c r="E10">
-        <v>-23</v>
-      </c>
       <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
         <v>-14</v>
       </c>
-      <c r="G10">
-        <v>-22</v>
-      </c>
-      <c r="H10">
-        <v>-19</v>
-      </c>
       <c r="I10">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="J10">
         <v>-29</v>
       </c>
       <c r="K10">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="L10">
+        <v>-26</v>
+      </c>
+      <c r="M10">
+        <v>-26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+      <c r="D11">
+        <v>-16</v>
+      </c>
+      <c r="E11">
         <v>-23</v>
       </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
-      </c>
-      <c r="D11">
-        <v>-5</v>
-      </c>
-      <c r="E11">
-        <v>-8</v>
-      </c>
       <c r="F11">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="G11">
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="H11">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="I11">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="J11">
         <v>-29</v>
       </c>
       <c r="K11">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="L11">
-        <v>-26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
+        <v>-23</v>
+      </c>
+      <c r="M11">
+        <v>-30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,25 +2487,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>-14</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2480,19 +2513,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -2509,22 +2542,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="G4">
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2532,25 +2565,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="F5">
+        <v>-11</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2558,25 +2591,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>-26</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2584,25 +2617,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>-8</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2610,25 +2643,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="G8">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2639,21 +2672,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-19</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>-18</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>25</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,34 +52,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,30 +136,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -621,28 +624,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -656,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -674,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -691,28 +694,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -723,34 +726,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -761,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -773,19 +776,19 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -793,22 +796,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -817,10 +820,10 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -831,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -863,34 +866,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -925,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -939,25 +942,25 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -978,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -992,13 +995,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1006,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1020,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1034,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1048,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1062,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1076,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1090,10 +1093,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1107,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1121,10 +1124,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1142,16 +1145,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1159,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1176,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D3">
-        <v>0.3000000000000007</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1193,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1210,16 +1213,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D6">
-        <v>-0.4000000000000004</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1244,16 +1247,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1264,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1278,16 +1281,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>-0.09999999999999964</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1295,16 +1298,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1315,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="D11">
         <v>0.09999999999999964</v>
@@ -1339,344 +1342,344 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>14.63</v>
+        <v>33.6</v>
       </c>
       <c r="C2">
-        <v>13.52</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>23.83</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H2">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.63</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>58.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>13.19</v>
+        <v>24.84</v>
       </c>
       <c r="C3">
-        <v>2.83</v>
+        <v>8.4</v>
       </c>
       <c r="D3">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.65</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>24.75</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.199999999999999</v>
+        <v>25.2</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>41.56</v>
       </c>
       <c r="I3">
-        <v>5.77</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>18.64</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>63.38</v>
+        <v>58.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>12.34</v>
+        <v>19.08</v>
       </c>
       <c r="C4">
-        <v>22.9</v>
+        <v>15.01</v>
       </c>
       <c r="D4">
-        <v>6.959999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="E4">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.63</v>
+        <v>6.67</v>
       </c>
       <c r="H4">
-        <v>24.03</v>
+        <v>35.03</v>
       </c>
       <c r="I4">
-        <v>8.08</v>
+        <v>22.48</v>
       </c>
       <c r="J4">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>56.16</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>12.31</v>
+        <v>12.93</v>
       </c>
       <c r="C5">
-        <v>4.14</v>
+        <v>20.32</v>
       </c>
       <c r="D5">
-        <v>0.21</v>
+        <v>4.95</v>
       </c>
       <c r="E5">
-        <v>4.54</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
-        <v>25.4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>16.65</v>
+        <v>1.61</v>
       </c>
       <c r="H5">
-        <v>1.64</v>
+        <v>16.73</v>
       </c>
       <c r="I5">
-        <v>2.17</v>
+        <v>33.79</v>
       </c>
       <c r="J5">
-        <v>14.84</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="K5">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>63.25</v>
+        <v>39.93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>11.95</v>
+        <v>7.3</v>
       </c>
       <c r="C6">
-        <v>7.13</v>
+        <v>22.38</v>
       </c>
       <c r="D6">
-        <v>0.5499999999999999</v>
+        <v>10.39</v>
       </c>
       <c r="E6">
-        <v>0.67</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="F6">
-        <v>14.09</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>29.76</v>
+        <v>0.12</v>
       </c>
       <c r="H6">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="I6">
-        <v>0.46</v>
+        <v>26.66</v>
       </c>
       <c r="J6">
-        <v>8.290000000000001</v>
+        <v>24.34</v>
       </c>
       <c r="K6">
-        <v>21.28</v>
+        <v>2.25</v>
       </c>
       <c r="L6">
-        <v>64.15000000000001</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9.93</v>
+        <v>2.25</v>
       </c>
       <c r="C7">
-        <v>1.14</v>
+        <v>19.2</v>
       </c>
       <c r="D7">
-        <v>4.99</v>
+        <v>16.15</v>
       </c>
       <c r="E7">
-        <v>20.89</v>
+        <v>2.11</v>
       </c>
       <c r="F7">
-        <v>16.89</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.69</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I7">
-        <v>12.7</v>
+        <v>14.03</v>
       </c>
       <c r="J7">
-        <v>21.79</v>
+        <v>32.89</v>
       </c>
       <c r="K7">
-        <v>7.7</v>
+        <v>12.44</v>
       </c>
       <c r="L7">
-        <v>56.12</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>9.16</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.48</v>
+        <v>14.69</v>
       </c>
       <c r="D8">
-        <v>10.28</v>
+        <v>31.24</v>
       </c>
       <c r="E8">
-        <v>21.95</v>
+        <v>8.34</v>
       </c>
       <c r="F8">
-        <v>9.120000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5.02</v>
+        <v>0.03</v>
       </c>
       <c r="I8">
-        <v>20.51</v>
+        <v>2.8</v>
       </c>
       <c r="J8">
-        <v>18.89</v>
+        <v>21.84</v>
       </c>
       <c r="K8">
-        <v>3.09</v>
+        <v>20.85</v>
       </c>
       <c r="L8">
-        <v>52.49000000000001</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>8.68</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>16.94</v>
+        <v>35.54</v>
       </c>
       <c r="E9">
-        <v>18.03</v>
+        <v>26.39</v>
       </c>
       <c r="F9">
-        <v>3.41</v>
+        <v>1.83</v>
       </c>
       <c r="G9">
-        <v>0.7799999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>25.52</v>
+        <v>0.24</v>
       </c>
       <c r="J9">
-        <v>10.33</v>
+        <v>9.31</v>
       </c>
       <c r="K9">
-        <v>0.95</v>
+        <v>26.69</v>
       </c>
       <c r="L9">
-        <v>50.99999999999999</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1684,37 +1687,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>29.94</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>24.41</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3.54</v>
+        <v>62.23</v>
       </c>
       <c r="F10">
-        <v>0.18</v>
+        <v>16.14</v>
       </c>
       <c r="G10">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>9.779999999999999</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.44</v>
+        <v>2.07</v>
       </c>
       <c r="K10">
-        <v>3.99</v>
+        <v>19.56</v>
       </c>
       <c r="L10">
-        <v>68.94000000000001</v>
+        <v>78.37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1722,37 +1725,37 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>13.76</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>32.62</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>15.22</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>81.78999999999999</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.35</v>
+        <v>18.21</v>
       </c>
       <c r="L11">
-        <v>65.81</v>
+        <v>81.78999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1770,16 +1773,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1790,13 +1793,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,13 +1810,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1821,16 +1824,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1838,16 +1841,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1858,13 +1861,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1875,13 +1878,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1889,16 +1892,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1906,16 +1909,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1923,16 +1926,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-26</v>
+        <v>-18</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1943,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-30</v>
+        <v>-28</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -1959,13 +1962,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2003,10 +2006,13 @@
         <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2046,11 +2052,14 @@
       <c r="M2">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2090,99 +2099,108 @@
       <c r="M3">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>22</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>17</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>11</v>
       </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2222,11 +2240,14 @@
       <c r="M6">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2266,143 +2287,155 @@
       <c r="M7">
         <v>-2</v>
       </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>-6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-4</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>-11</v>
+      </c>
+      <c r="G8">
+        <v>-11</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-8</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8">
+        <v>-18</v>
+      </c>
+      <c r="M8">
+        <v>-23</v>
+      </c>
+      <c r="N8">
+        <v>-14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-8</v>
+      </c>
+      <c r="F9">
+        <v>-17</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-14</v>
+      </c>
+      <c r="I9">
+        <v>-18</v>
+      </c>
+      <c r="J9">
+        <v>-29</v>
+      </c>
+      <c r="K9">
+        <v>-31</v>
+      </c>
+      <c r="L9">
+        <v>-26</v>
+      </c>
+      <c r="M9">
+        <v>-26</v>
+      </c>
+      <c r="N9">
+        <v>-16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>-6</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>-10</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>-13</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>-18</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>-18</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>-17</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>-18</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>-11</v>
-      </c>
-      <c r="H9">
-        <v>-12</v>
-      </c>
-      <c r="I9">
-        <v>-8</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>-11</v>
-      </c>
-      <c r="L9">
+      <c r="N10">
         <v>-18</v>
       </c>
-      <c r="M9">
-        <v>-23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10">
-        <v>-8</v>
-      </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
-      <c r="G10">
-        <v>-13</v>
-      </c>
-      <c r="H10">
-        <v>-14</v>
-      </c>
-      <c r="I10">
-        <v>-18</v>
-      </c>
-      <c r="J10">
-        <v>-29</v>
-      </c>
-      <c r="K10">
-        <v>-31</v>
-      </c>
-      <c r="L10">
-        <v>-26</v>
-      </c>
-      <c r="M10">
-        <v>-26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2475,10 @@
       <c r="M11">
         <v>-30</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>-28</v>
+      </c>
+      <c r="O11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2453,7 +2489,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2461,25 +2497,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2487,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>-28</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2513,25 +2549,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>-14</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2539,19 +2575,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -2568,22 +2604,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="G5">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2591,25 +2627,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="F6">
+        <v>-11</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2617,25 +2653,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>-26</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2643,25 +2679,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2669,25 +2705,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2695,25 +2731,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2724,21 +2760,73 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12">
+        <v>-18</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="68">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,31 +52,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,31 +136,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,31 +627,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -659,31 +662,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -694,31 +697,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -729,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -747,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -761,34 +764,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -796,34 +799,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -834,22 +837,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -869,31 +872,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -904,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -916,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -928,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -936,34 +939,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1012,10 +1015,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,13 +1040,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1051,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1065,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1093,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1107,13 +1110,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,10 +1127,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1165,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="D2">
         <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1182,13 +1185,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D3">
-        <v>-0.1999999999999993</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1199,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1216,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>-0.7000000000000002</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>-0.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1250,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>-0.4000000000000004</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1264,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>0.5999999999999996</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1281,16 +1284,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1298,13 +1301,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D10">
-        <v>0.09999999999999964</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1315,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>5.1</v>
@@ -1383,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>33.6</v>
+        <v>28.73</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1398,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>66.40000000000001</v>
+        <v>71.27</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1418,13 +1421,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24.84</v>
+        <v>27.3</v>
       </c>
       <c r="C3">
-        <v>8.4</v>
+        <v>7.52</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1436,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.2</v>
+        <v>21.21</v>
       </c>
       <c r="H3">
-        <v>41.56</v>
+        <v>43.97</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1451,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>58.44</v>
+        <v>56.03</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>19.08</v>
+        <v>19.83</v>
       </c>
       <c r="C4">
-        <v>15.01</v>
+        <v>14.81</v>
       </c>
       <c r="D4">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1474,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.67</v>
+        <v>6.35</v>
       </c>
       <c r="H4">
-        <v>35.03</v>
+        <v>33.7</v>
       </c>
       <c r="I4">
-        <v>22.48</v>
+        <v>24.14</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1489,45 +1492,45 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>42.49</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>12.93</v>
+        <v>12.39</v>
       </c>
       <c r="C5">
-        <v>20.32</v>
+        <v>16.99</v>
       </c>
       <c r="D5">
-        <v>4.95</v>
+        <v>3.49</v>
       </c>
       <c r="E5">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.61</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>16.73</v>
+        <v>17.67</v>
       </c>
       <c r="I5">
-        <v>33.79</v>
+        <v>36.54</v>
       </c>
       <c r="J5">
-        <v>9.550000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>39.93</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1535,75 +1538,75 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.3</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="C6">
-        <v>22.38</v>
+        <v>20.32</v>
       </c>
       <c r="D6">
-        <v>10.39</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="E6">
-        <v>0.8099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>4.17</v>
       </c>
       <c r="I6">
-        <v>26.66</v>
+        <v>26.94</v>
       </c>
       <c r="J6">
-        <v>24.34</v>
+        <v>28.61</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>3.92</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2.25</v>
+        <v>3.92</v>
       </c>
       <c r="C7">
-        <v>19.2</v>
+        <v>24.62</v>
       </c>
       <c r="D7">
-        <v>16.15</v>
+        <v>18.45</v>
       </c>
       <c r="E7">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="F7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.8999999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="I7">
-        <v>14.03</v>
+        <v>9.73</v>
       </c>
       <c r="J7">
-        <v>32.89</v>
+        <v>28.81</v>
       </c>
       <c r="K7">
-        <v>12.44</v>
+        <v>11.82</v>
       </c>
       <c r="L7">
-        <v>39.74</v>
+        <v>49.16999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1614,34 +1617,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>14.69</v>
+        <v>15.74</v>
       </c>
       <c r="D8">
-        <v>31.24</v>
+        <v>34.18</v>
       </c>
       <c r="E8">
-        <v>8.34</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="F8">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I8">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="J8">
-        <v>21.84</v>
+        <v>19.38</v>
       </c>
       <c r="K8">
-        <v>20.85</v>
+        <v>19.25</v>
       </c>
       <c r="L8">
-        <v>54.48</v>
+        <v>59.04</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1655,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>35.54</v>
+        <v>34.99</v>
       </c>
       <c r="E9">
-        <v>26.39</v>
+        <v>24.69</v>
       </c>
       <c r="F9">
-        <v>1.83</v>
+        <v>1.35</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1670,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="J9">
-        <v>9.31</v>
+        <v>9.76</v>
       </c>
       <c r="K9">
-        <v>26.69</v>
+        <v>28.87</v>
       </c>
       <c r="L9">
-        <v>63.76</v>
+        <v>61.03000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1696,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>62.23</v>
+        <v>63.85999999999999</v>
       </c>
       <c r="F10">
-        <v>16.14</v>
+        <v>10.75</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1711,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="K10">
-        <v>19.56</v>
+        <v>23.7</v>
       </c>
       <c r="L10">
-        <v>78.37</v>
+        <v>74.60999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1737,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.78999999999999</v>
+        <v>87.56</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1752,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.21</v>
+        <v>12.44</v>
       </c>
       <c r="L11">
-        <v>81.78999999999999</v>
+        <v>87.56</v>
       </c>
     </row>
   </sheetData>
@@ -1790,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1807,13 +1810,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -1827,10 +1830,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -1844,10 +1847,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -1861,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1875,10 +1878,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1892,10 +1895,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1912,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1926,16 +1929,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1946,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -1962,13 +1965,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2009,104 +2012,113 @@
         <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>35</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>41</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>44</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>41</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>32</v>
-      </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2149,11 +2161,14 @@
       <c r="N4">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2196,11 +2211,14 @@
       <c r="N5">
         <v>7</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2243,105 +2261,114 @@
       <c r="N6">
         <v>-1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>-5</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-13</v>
+      </c>
+      <c r="J7">
+        <v>-18</v>
+      </c>
+      <c r="K7">
+        <v>-18</v>
+      </c>
+      <c r="L7">
+        <v>-17</v>
+      </c>
+      <c r="M7">
+        <v>-18</v>
+      </c>
+      <c r="N7">
+        <v>-18</v>
+      </c>
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-14</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-16</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-8</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-1</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>-2</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>-6</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-4</v>
-      </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>-11</v>
-      </c>
-      <c r="G8">
-        <v>-11</v>
-      </c>
-      <c r="H8">
-        <v>-12</v>
-      </c>
-      <c r="I8">
-        <v>-8</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>-11</v>
-      </c>
-      <c r="L8">
-        <v>-18</v>
-      </c>
-      <c r="M8">
-        <v>-23</v>
-      </c>
-      <c r="N8">
-        <v>-14</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>-13</v>
+      </c>
+      <c r="P8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2384,58 +2411,64 @@
       <c r="N9">
         <v>-16</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>-17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-11</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10">
+        <v>-11</v>
+      </c>
+      <c r="L10">
+        <v>-18</v>
+      </c>
+      <c r="M10">
+        <v>-23</v>
+      </c>
+      <c r="N10">
+        <v>-14</v>
+      </c>
+      <c r="O10">
+        <v>-19</v>
+      </c>
+      <c r="P10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-13</v>
-      </c>
-      <c r="J10">
-        <v>-18</v>
-      </c>
-      <c r="K10">
-        <v>-18</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10">
-        <v>-18</v>
-      </c>
-      <c r="N10">
-        <v>-18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2478,7 +2511,10 @@
       <c r="N11">
         <v>-28</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>-30</v>
+      </c>
+      <c r="P11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2489,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2497,25 +2533,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2776,58 +2812,6 @@
       </c>
       <c r="H11" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>-18</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="70">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,31 +52,34 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,31 +139,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,10 +645,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -665,28 +671,28 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -697,31 +703,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -735,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -744,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -776,13 +782,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -791,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -799,28 +805,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -840,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -875,28 +881,28 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -904,34 +910,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -960,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +990,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -998,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1012,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1029,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1040,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1054,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1068,13 +1074,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1096,13 +1102,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1110,13 +1116,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1127,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1148,16 +1154,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1174,7 +1180,7 @@
         <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1185,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="D3">
-        <v>-0.5999999999999996</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1199,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D4">
-        <v>0.1999999999999993</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1216,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="D6">
         <v>1.4</v>
@@ -1253,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>-0.09999999999999964</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1270,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000002</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1287,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D9">
-        <v>-0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1301,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D10">
-        <v>0.2999999999999998</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1318,16 +1324,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D11">
-        <v>0.09999999999999964</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1345,40 +1351,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1386,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>28.73</v>
+        <v>28.08</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>71.27</v>
+        <v>71.92</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1424,10 +1430,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>27.3</v>
+        <v>27.54</v>
       </c>
       <c r="C3">
-        <v>7.52</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1439,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.21</v>
+        <v>20.97</v>
       </c>
       <c r="H3">
-        <v>43.97</v>
+        <v>44.38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1454,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>56.03</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1462,13 +1468,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>19.83</v>
+        <v>19.82</v>
       </c>
       <c r="C4">
-        <v>14.81</v>
+        <v>13.35</v>
       </c>
       <c r="D4">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1477,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.35</v>
+        <v>5.96</v>
       </c>
       <c r="H4">
-        <v>33.7</v>
+        <v>35.16</v>
       </c>
       <c r="I4">
-        <v>24.14</v>
+        <v>24.56</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1492,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>42.16</v>
+        <v>40.28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1500,37 +1506,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>12.39</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>16.99</v>
+        <v>17.33</v>
       </c>
       <c r="D5">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="E5">
-        <v>0.06999999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H5">
-        <v>17.67</v>
+        <v>15.99</v>
       </c>
       <c r="I5">
-        <v>36.54</v>
+        <v>37.65</v>
       </c>
       <c r="J5">
-        <v>11.75</v>
+        <v>12.56</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.04</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1538,37 +1544,37 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.829999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C6">
-        <v>20.32</v>
+        <v>20.5</v>
       </c>
       <c r="D6">
-        <v>7.720000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.06999999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="H6">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="I6">
-        <v>26.94</v>
+        <v>25.82</v>
       </c>
       <c r="J6">
-        <v>28.61</v>
+        <v>29.15</v>
       </c>
       <c r="K6">
-        <v>3.92</v>
+        <v>4.03</v>
       </c>
       <c r="L6">
-        <v>36.36</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1576,37 +1582,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>3.92</v>
+        <v>4.03</v>
       </c>
       <c r="C7">
-        <v>24.62</v>
+        <v>25.15</v>
       </c>
       <c r="D7">
-        <v>18.45</v>
+        <v>17.76</v>
       </c>
       <c r="E7">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I7">
-        <v>9.73</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="J7">
-        <v>28.81</v>
+        <v>28.56</v>
       </c>
       <c r="K7">
-        <v>11.82</v>
+        <v>12.53</v>
       </c>
       <c r="L7">
-        <v>49.16999999999999</v>
+        <v>49.17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1617,34 +1623,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>15.74</v>
+        <v>16.56</v>
       </c>
       <c r="D8">
-        <v>34.18</v>
+        <v>34.63</v>
       </c>
       <c r="E8">
-        <v>8.799999999999999</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="F8">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="J8">
-        <v>19.38</v>
+        <v>18.21</v>
       </c>
       <c r="K8">
-        <v>19.25</v>
+        <v>19.08</v>
       </c>
       <c r="L8">
-        <v>59.04</v>
+        <v>60.14</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1658,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>34.99</v>
+        <v>35.64</v>
       </c>
       <c r="E9">
-        <v>24.69</v>
+        <v>24.4</v>
       </c>
       <c r="F9">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1673,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="J9">
-        <v>9.76</v>
+        <v>9.68</v>
       </c>
       <c r="K9">
-        <v>28.87</v>
+        <v>28.44</v>
       </c>
       <c r="L9">
-        <v>61.03000000000001</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1699,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>63.85999999999999</v>
+        <v>64.08</v>
       </c>
       <c r="F10">
-        <v>10.75</v>
+        <v>11.23</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1714,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="K10">
-        <v>23.7</v>
+        <v>22.85</v>
       </c>
       <c r="L10">
-        <v>74.60999999999999</v>
+        <v>75.31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1740,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>87.56</v>
+        <v>86.92999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1755,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.44</v>
+        <v>13.07</v>
       </c>
       <c r="L11">
-        <v>87.56</v>
+        <v>86.92999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1776,16 +1782,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1793,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1810,16 +1816,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1830,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1847,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1867,7 +1873,7 @@
         <v>-5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1898,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1915,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1932,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1949,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1965,160 +1971,169 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2">
+        <v>44</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>19</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>22</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>31</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>-2</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>41</v>
-      </c>
-      <c r="L3">
-        <v>44</v>
-      </c>
-      <c r="M3">
-        <v>41</v>
-      </c>
-      <c r="N3">
-        <v>35</v>
-      </c>
-      <c r="O3">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2164,11 +2179,14 @@
       <c r="O4">
         <v>11</v>
       </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2214,11 +2232,14 @@
       <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2264,11 +2285,14 @@
       <c r="O6">
         <v>-5</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>-5</v>
+      </c>
+      <c r="Q6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,11 +2338,14 @@
       <c r="O7">
         <v>-10</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>-6</v>
+      </c>
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2364,11 +2391,14 @@
       <c r="O8">
         <v>-13</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>-11</v>
+      </c>
+      <c r="Q8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2414,11 +2444,14 @@
       <c r="O9">
         <v>-17</v>
       </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2464,11 +2497,14 @@
       <c r="O10">
         <v>-19</v>
       </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2514,8 +2550,11 @@
       <c r="O11">
         <v>-30</v>
       </c>
-      <c r="P11" t="s">
-        <v>46</v>
+      <c r="P11">
+        <v>-23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2564,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2533,25 +2572,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2585,25 +2624,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>41</v>
+        <v>-23</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2611,25 +2650,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>-14</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2637,19 +2676,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="G5">
         <v>28</v>
@@ -2666,22 +2705,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>-11</v>
+        <v>-29</v>
       </c>
       <c r="G6">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2689,25 +2728,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-26</v>
+        <v>17</v>
       </c>
       <c r="F7">
+        <v>-11</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>1</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2715,25 +2754,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>-26</v>
       </c>
       <c r="F8">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2741,25 +2780,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>-18</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2767,25 +2806,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2793,25 +2832,77 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="G11">
         <v>18</v>
       </c>
       <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-19</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>-6</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Game of Yards! 2024.xlsx
+++ b/Game of Yards! 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="73">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,34 +52,43 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,31 +148,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑6</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +212,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -645,19 +654,19 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -668,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -686,13 +695,13 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -703,19 +712,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -724,10 +733,10 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -738,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -747,16 +756,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -773,31 +782,31 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -808,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -823,16 +832,16 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,34 +849,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -875,34 +884,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -910,34 +919,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,31 +957,31 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -990,13 +999,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1007,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1018,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1032,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1049,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1063,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,13 +1083,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,13 +1097,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1116,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1130,13 +1139,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>8.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1154,16 +1163,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1174,13 +1183,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1191,13 +1200,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,16 +1214,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="D4">
-        <v>-0.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,16 +1231,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D5">
-        <v>0.4000000000000004</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1248,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="D6">
-        <v>1.4</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1256,16 +1265,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1273,16 +1282,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="D8">
-        <v>-0.7000000000000002</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,16 +1299,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>-1.3</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D10">
-        <v>-0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1324,16 +1333,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="D11">
-        <v>0.4000000000000004</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1351,40 +1360,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1392,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>28.08</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>71.92</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1430,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>27.54</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.109999999999999</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1445,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.97</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44.38</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1468,13 +1477,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>19.82</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.15</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1483,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>35.16</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>24.56</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1498,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>40.28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1506,37 +1515,37 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>17.33</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.99</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>37.65</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.56</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1544,37 +1553,37 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>25.82</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>29.15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>37.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1582,37 +1591,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>25.15</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>17.76</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>9.229999999999999</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>28.56</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12.53</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>49.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1623,34 +1632,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>16.56</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>34.63</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>8.780000000000001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>18.21</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.08</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>60.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1664,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>35.64</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1679,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.23</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>28.44</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>61.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1705,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>64.08</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>11.23</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1720,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.84</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>22.85</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>75.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1746,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>86.92999999999999</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1761,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.07</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>86.92999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1782,16 +1791,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1799,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1816,16 +1825,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1836,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1853,13 +1862,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1870,13 +1879,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1887,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1901,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1921,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-19</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1935,16 +1944,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1952,16 +1961,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-23</v>
+        <v>-38</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1971,169 +1980,187 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>31</v>
+      </c>
+      <c r="Q2">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>35</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>41</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>44</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>41</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>35</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>35</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
         <v>32</v>
       </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>42</v>
-      </c>
-      <c r="P3">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2182,11 +2209,17 @@
       <c r="P4">
         <v>12</v>
       </c>
-      <c r="Q4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2235,11 +2268,17 @@
       <c r="P5">
         <v>11</v>
       </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2288,11 +2327,17 @@
       <c r="P6">
         <v>-5</v>
       </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>-6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,64 +2386,76 @@
       <c r="P7">
         <v>-6</v>
       </c>
-      <c r="Q7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>-13</v>
+      </c>
+      <c r="R7">
+        <v>-14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="C8">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="D8">
         <v>-16</v>
       </c>
       <c r="E8">
-        <v>-8</v>
+        <v>-23</v>
       </c>
       <c r="F8">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>-22</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>-19</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-29</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>-29</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>-23</v>
       </c>
       <c r="M8">
-        <v>-2</v>
+        <v>-30</v>
       </c>
       <c r="N8">
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="O8">
-        <v>-13</v>
+        <v>-30</v>
       </c>
       <c r="P8">
-        <v>-11</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>-23</v>
+      </c>
+      <c r="Q8">
+        <v>-17</v>
+      </c>
+      <c r="R8">
+        <v>-16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2447,114 +2504,132 @@
       <c r="P9">
         <v>-23</v>
       </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-20</v>
+      </c>
+      <c r="R9">
+        <v>-19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-14</v>
+      </c>
+      <c r="D10">
+        <v>-16</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-2</v>
+      </c>
+      <c r="N10">
+        <v>-6</v>
+      </c>
+      <c r="O10">
+        <v>-13</v>
+      </c>
+      <c r="P10">
+        <v>-11</v>
+      </c>
+      <c r="Q10">
+        <v>-20</v>
+      </c>
+      <c r="R10">
+        <v>-22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-4</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-10</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-11</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-11</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-12</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-8</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-8</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-11</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-18</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-23</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-14</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-19</v>
-      </c>
-      <c r="P10">
-        <v>-23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-16</v>
-      </c>
-      <c r="E11">
-        <v>-23</v>
-      </c>
-      <c r="F11">
-        <v>-14</v>
-      </c>
-      <c r="G11">
-        <v>-22</v>
-      </c>
-      <c r="H11">
-        <v>-19</v>
-      </c>
-      <c r="I11">
-        <v>-20</v>
-      </c>
-      <c r="J11">
-        <v>-29</v>
-      </c>
-      <c r="K11">
-        <v>-29</v>
-      </c>
-      <c r="L11">
-        <v>-23</v>
-      </c>
-      <c r="M11">
-        <v>-30</v>
-      </c>
-      <c r="N11">
-        <v>-28</v>
-      </c>
-      <c r="O11">
-        <v>-30</v>
       </c>
       <c r="P11">
         <v>-23</v>
       </c>
-      <c r="Q11" t="s">
-        <v>47</v>
+      <c r="Q11">
+        <v>-30</v>
+      </c>
+      <c r="R11">
+        <v>-38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2572,25 +2647,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2825,84 +2900,6 @@
       </c>
       <c r="H10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-19</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
